--- a/crawl/data_collecting/output3.xlsx
+++ b/crawl/data_collecting/output3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="20175" windowHeight="7425" activeTab="2"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="20175" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="멜론 TOP100" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
   <si>
     <t>랭킹</t>
   </si>
@@ -487,66 +487,6 @@
   </si>
   <si>
     <t>계</t>
-  </si>
-  <si>
-    <t>12673</t>
-  </si>
-  <si>
-    <t>76850</t>
-  </si>
-  <si>
-    <t>71114</t>
-  </si>
-  <si>
-    <t>44882</t>
-  </si>
-  <si>
-    <t>117745</t>
-  </si>
-  <si>
-    <t>80209</t>
-  </si>
-  <si>
-    <t>159014</t>
-  </si>
-  <si>
-    <t>120406</t>
-  </si>
-  <si>
-    <t>99941</t>
-  </si>
-  <si>
-    <t>140789</t>
-  </si>
-  <si>
-    <t>8009</t>
-  </si>
-  <si>
-    <t>72186</t>
-  </si>
-  <si>
-    <t>66450</t>
-  </si>
-  <si>
-    <t>40218</t>
-  </si>
-  <si>
-    <t>113081</t>
-  </si>
-  <si>
-    <t>75545</t>
-  </si>
-  <si>
-    <t>154350</t>
-  </si>
-  <si>
-    <t>115742</t>
-  </si>
-  <si>
-    <t>95277</t>
-  </si>
-  <si>
-    <t>136125</t>
   </si>
 </sst>
 </file>
@@ -653,7 +593,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'세번째 시트'!$A$1:$A$10</c:f>
+              <c:f>'멜론 TOP100'!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -691,39 +631,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'세번째 시트'!$B$1:$B$10</c:f>
+              <c:f>'멜론 TOP100'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>76850</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>71114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>44882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>117745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>80209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>159014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>120406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>99941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>140789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,11 +678,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94576128"/>
-        <c:axId val="101247808"/>
+        <c:axId val="100802048"/>
+        <c:axId val="100985664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94576128"/>
+        <c:axId val="100802048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101247808"/>
+        <c:crossAx val="100985664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101247808"/>
+        <c:axId val="100985664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +710,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94576128"/>
+        <c:crossAx val="100802048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -820,80 +760,77 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'세번째 시트'!$A$2:$A$11</c:f>
+              <c:f>'멜론 TOP100'!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>초록빛</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>넘쳐흘러</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>벌써 12시</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>띵 (Prod. By 기리보이)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>180도</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>신용재</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>SOLO</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Love Shot</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>MILLIONS</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>아낙네</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>제목</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'세번째 시트'!$B$1:$B$11</c:f>
+              <c:f>'멜론 TOP100'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>72186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>66450</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>113081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>75545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>154350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>115742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>95277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>136125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,11 +845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101249536"/>
-        <c:axId val="101250112"/>
+        <c:axId val="100987392"/>
+        <c:axId val="100987968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101249536"/>
+        <c:axId val="100987392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +864,7 @@
               <a:p>
                 <a:r>
                   <a:rPr lang="ko-KR" altLang="en-US"/>
-                  <a:t>가수</a:t>
+                  <a:t>노래</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -938,12 +875,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101250112"/>
+        <c:crossAx val="100987968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101250112"/>
+        <c:axId val="100987968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +907,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101249536"/>
+        <c:crossAx val="100987392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3701,9 +3638,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5400000" cy="2700000"/>
@@ -3726,10 +3663,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
@@ -4039,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5794,181 +5731,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
